--- a/examples/Canada OGD/upper Canada Land Petitions/counters.xlsx
+++ b/examples/Canada OGD/upper Canada Land Petitions/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/upper Canada Land Petitions/counters.xlsx
+++ b/examples/Canada OGD/upper Canada Land Petitions/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
